--- a/Manuscripts/src/tables/WS3_pfeatures-PCA-EER.xlsx
+++ b/Manuscripts/src/tables/WS3_pfeatures-PCA-EER.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>EER Right</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -461,6 +466,11 @@
           <t>0.28 +/- 0.03 (0.23, 0.31)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.28 +/- 0.03 (0.23, 0.33)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -478,6 +488,11 @@
           <t>0.28 +/- 0.02 (0.25, 0.31)</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.28 +/- 0.03 (0.24, 0.34)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -495,6 +510,11 @@
           <t>0.28 +/- 0.02 (0.25, 0.31)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28 +/- 0.03 (0.25, 0.34)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -510,6 +530,11 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>0.30 +/- 0.02 (0.28, 0.33)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.31 +/- 0.03 (0.28, 0.37)</t>
         </is>
       </c>
     </row>
